--- a/team_specific_matrix/Rice_B.xlsx
+++ b/team_specific_matrix/Rice_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1706161137440758</v>
+        <v>0.1706349206349206</v>
       </c>
       <c r="C2">
-        <v>0.5876777251184834</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01895734597156398</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1469194312796208</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07582938388625593</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008064516129032258</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C3">
-        <v>0.01612903225806452</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008064516129032258</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8145161290322581</v>
+        <v>0.8079470198675497</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1532258064516129</v>
+        <v>0.1655629139072848</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.12</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.48</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1104294478527607</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0245398773006135</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05521472392638037</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.245398773006135</v>
+        <v>0.2216216216216216</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0245398773006135</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1533742331288344</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="R6">
-        <v>0.09202453987730061</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="S6">
-        <v>0.294478527607362</v>
+        <v>0.3081081081081081</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08955223880597014</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01492537313432836</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05223880597014925</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1492537313432836</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01492537313432836</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1791044776119403</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="R7">
-        <v>0.1119402985074627</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="S7">
-        <v>0.3880597014925373</v>
+        <v>0.3780487804878049</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05898876404494382</v>
+        <v>0.06775700934579439</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01123595505617977</v>
+        <v>0.01168224299065421</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002336448598130841</v>
       </c>
       <c r="F8">
-        <v>0.07303370786516854</v>
+        <v>0.07242990654205607</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1151685393258427</v>
+        <v>0.1144859813084112</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01966292134831461</v>
+        <v>0.02102803738317757</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1713483146067416</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="R8">
-        <v>0.08707865168539326</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="S8">
-        <v>0.4634831460674158</v>
+        <v>0.4532710280373832</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.106145251396648</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01675977653631285</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02793296089385475</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07262569832402235</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0111731843575419</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2067039106145251</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.0782122905027933</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="S9">
-        <v>0.4804469273743017</v>
+        <v>0.4511627906976744</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09464627151051626</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01529636711281071</v>
+        <v>0.01654259718775848</v>
       </c>
       <c r="E10">
-        <v>0.0009560229445506692</v>
+        <v>0.0008271298593879239</v>
       </c>
       <c r="F10">
-        <v>0.07170172084130019</v>
+        <v>0.06782464846980976</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.118546845124283</v>
+        <v>0.1207609594706369</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01434034416826004</v>
+        <v>0.01571546732837055</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2351816443594646</v>
+        <v>0.2315963606286187</v>
       </c>
       <c r="R10">
-        <v>0.1061185468451243</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="S10">
-        <v>0.3432122370936903</v>
+        <v>0.347394540942928</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1415929203539823</v>
+        <v>0.1385767790262172</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1194690265486726</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="K11">
-        <v>0.2168141592920354</v>
+        <v>0.2172284644194757</v>
       </c>
       <c r="L11">
-        <v>0.5088495575221239</v>
+        <v>0.5205992509363296</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01327433628318584</v>
+        <v>0.0149812734082397</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7155172413793104</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2155172413793103</v>
+        <v>0.2042253521126761</v>
       </c>
       <c r="K12">
-        <v>0.008620689655172414</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="L12">
-        <v>0.02586206896551724</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03448275862068965</v>
+        <v>0.04225352112676056</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7586206896551724</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2068965517241379</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03448275862068965</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01197604790419162</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1377245508982036</v>
+        <v>0.155440414507772</v>
       </c>
       <c r="I15">
-        <v>0.0658682634730539</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="J15">
-        <v>0.4131736526946108</v>
+        <v>0.383419689119171</v>
       </c>
       <c r="K15">
-        <v>0.04191616766467066</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02994011976047904</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04191616766467066</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2574850299401197</v>
+        <v>0.2746113989637305</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0072992700729927</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1897810218978102</v>
+        <v>0.1939393939393939</v>
       </c>
       <c r="I16">
-        <v>0.1167883211678832</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="J16">
-        <v>0.4233576642335766</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="K16">
-        <v>0.08029197080291971</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0072992700729927</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04379562043795621</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1313868613138686</v>
+        <v>0.1393939393939394</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01302083333333333</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1822916666666667</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="I17">
-        <v>0.08854166666666667</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="J17">
-        <v>0.4322916666666667</v>
+        <v>0.4295302013422819</v>
       </c>
       <c r="K17">
-        <v>0.09375</v>
+        <v>0.09172259507829977</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.015625</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0546875</v>
+        <v>0.04921700223713647</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1197916666666667</v>
+        <v>0.1140939597315436</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01075268817204301</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1720430107526882</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="I18">
-        <v>0.1182795698924731</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="J18">
-        <v>0.4354838709677419</v>
+        <v>0.4200913242009132</v>
       </c>
       <c r="K18">
-        <v>0.1075268817204301</v>
+        <v>0.1004566210045662</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005376344086021506</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07526881720430108</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07526881720430108</v>
+        <v>0.0958904109589041</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01186943620178042</v>
+        <v>0.01009251471825063</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2067260138476756</v>
+        <v>0.208578637510513</v>
       </c>
       <c r="I19">
-        <v>0.09396636993076163</v>
+        <v>0.09419680403700589</v>
       </c>
       <c r="J19">
-        <v>0.3798219584569733</v>
+        <v>0.3742640874684609</v>
       </c>
       <c r="K19">
-        <v>0.09693372898120672</v>
+        <v>0.09840201850294365</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01582591493570722</v>
+        <v>0.01934398654331371</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06330365974282888</v>
+        <v>0.0656013456686291</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1315529179030663</v>
+        <v>0.1295206055508831</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Rice_B.xlsx
+++ b/team_specific_matrix/Rice_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1706349206349206</v>
+        <v>0.1727941176470588</v>
       </c>
       <c r="C2">
-        <v>0.5952380952380952</v>
+        <v>0.5955882352941176</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01984126984126984</v>
+        <v>0.01838235294117647</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1349206349206349</v>
+        <v>0.1360294117647059</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07936507936507936</v>
+        <v>0.07720588235294118</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006622516556291391</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C3">
-        <v>0.01324503311258278</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006622516556291391</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8079470198675497</v>
+        <v>0.8098159509202454</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1655629139072848</v>
+        <v>0.1656441717791411</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09677419354838709</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5161290322580645</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3870967741935484</v>
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1027027027027027</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02162162162162162</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04864864864864865</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2216216216216216</v>
+        <v>0.2182741116751269</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02702702702702703</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1675675675675676</v>
+        <v>0.1776649746192893</v>
       </c>
       <c r="R6">
-        <v>0.1027027027027027</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="S6">
-        <v>0.3081081081081081</v>
+        <v>0.3096446700507614</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08536585365853659</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01219512195121951</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06097560975609756</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1463414634146341</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01219512195121951</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1951219512195122</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0.1097560975609756</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="S7">
-        <v>0.3780487804878049</v>
+        <v>0.3837837837837838</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06775700934579439</v>
+        <v>0.06623931623931624</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01168224299065421</v>
+        <v>0.01495726495726496</v>
       </c>
       <c r="E8">
-        <v>0.002336448598130841</v>
+        <v>0.002136752136752137</v>
       </c>
       <c r="F8">
-        <v>0.07242990654205607</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1144859813084112</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02102803738317757</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1635514018691589</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="R8">
-        <v>0.09345794392523364</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="S8">
-        <v>0.4532710280373832</v>
+        <v>0.4551282051282051</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1116279069767442</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0186046511627907</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09767441860465116</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01395348837209302</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="R9">
-        <v>0.08372093023255814</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="S9">
-        <v>0.4511627906976744</v>
+        <v>0.4478260869565218</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09677419354838709</v>
+        <v>0.09452363090772693</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01654259718775848</v>
+        <v>0.01575393848462115</v>
       </c>
       <c r="E10">
-        <v>0.0008271298593879239</v>
+        <v>0.0007501875468867217</v>
       </c>
       <c r="F10">
-        <v>0.06782464846980976</v>
+        <v>0.06601650412603151</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1207609594706369</v>
+        <v>0.118529632408102</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01571546732837055</v>
+        <v>0.01650412603150788</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2315963606286187</v>
+        <v>0.2273068267066767</v>
       </c>
       <c r="R10">
-        <v>0.1025641025641026</v>
+        <v>0.1042760690172543</v>
       </c>
       <c r="S10">
-        <v>0.347394540942928</v>
+        <v>0.3563390847711928</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1385767790262172</v>
+        <v>0.1462585034013605</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1086142322097378</v>
+        <v>0.1054421768707483</v>
       </c>
       <c r="K11">
-        <v>0.2172284644194757</v>
+        <v>0.2210884353741497</v>
       </c>
       <c r="L11">
-        <v>0.5205992509363296</v>
+        <v>0.5136054421768708</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0149812734082397</v>
+        <v>0.01360544217687075</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7183098591549296</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2042253521126761</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K12">
-        <v>0.007042253521126761</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="L12">
-        <v>0.02816901408450704</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04225352112676056</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7567567567567568</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2162162162162162</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01036269430051814</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.155440414507772</v>
+        <v>0.1441860465116279</v>
       </c>
       <c r="I15">
-        <v>0.07253886010362694</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="J15">
-        <v>0.383419689119171</v>
+        <v>0.3906976744186046</v>
       </c>
       <c r="K15">
-        <v>0.04145077720207254</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02590673575129534</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03626943005181347</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2746113989637305</v>
+        <v>0.2744186046511628</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006060606060606061</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1939393939393939</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="I16">
-        <v>0.103030303030303</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="J16">
-        <v>0.4181818181818182</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.09696969696969697</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006060606060606061</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03636363636363636</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1393939393939394</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01342281879194631</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1879194630872483</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="I17">
-        <v>0.1006711409395973</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="J17">
-        <v>0.4295302013422819</v>
+        <v>0.4382716049382716</v>
       </c>
       <c r="K17">
-        <v>0.09172259507829977</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01342281879194631</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04921700223713647</v>
+        <v>0.051440329218107</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1140939597315436</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0091324200913242</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1780821917808219</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="I18">
-        <v>0.1141552511415525</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="J18">
-        <v>0.4200913242009132</v>
+        <v>0.4314516129032258</v>
       </c>
       <c r="K18">
-        <v>0.1004566210045662</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0136986301369863</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0684931506849315</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0958904109589041</v>
+        <v>0.1048387096774194</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01009251471825063</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.208578637510513</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="I19">
-        <v>0.09419680403700589</v>
+        <v>0.09367859862909368</v>
       </c>
       <c r="J19">
-        <v>0.3742640874684609</v>
+        <v>0.3724295506473724</v>
       </c>
       <c r="K19">
-        <v>0.09840201850294365</v>
+        <v>0.09748667174409749</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01934398654331371</v>
+        <v>0.02284843869002285</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0656013456686291</v>
+        <v>0.06702208682406702</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1295206055508831</v>
+        <v>0.1287128712871287</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Rice_B.xlsx
+++ b/team_specific_matrix/Rice_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1727941176470588</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C2">
-        <v>0.5955882352941176</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01838235294117647</v>
+        <v>0.01773049645390071</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1360294117647059</v>
+        <v>0.1312056737588652</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07720588235294118</v>
+        <v>0.07446808510638298</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006134969325153374</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C3">
-        <v>0.01226993865030675</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006134969325153374</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8098159509202454</v>
+        <v>0.8023255813953488</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1656441717791411</v>
+        <v>0.1686046511627907</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08823529411764706</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5294117647058824</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3823529411764706</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1015228426395939</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02030456852791878</v>
+        <v>0.02</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04568527918781726</v>
+        <v>0.045</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2182741116751269</v>
+        <v>0.22</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02538071065989848</v>
+        <v>0.025</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1776649746192893</v>
+        <v>0.175</v>
       </c>
       <c r="R6">
-        <v>0.1015228426395939</v>
+        <v>0.1</v>
       </c>
       <c r="S6">
-        <v>0.3096446700507614</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0918918918918919</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01081081081081081</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06486486486486487</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1297297297297297</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01621621621621622</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.1947368421052632</v>
       </c>
       <c r="R7">
-        <v>0.1027027027027027</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.3837837837837838</v>
+        <v>0.3842105263157894</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06623931623931624</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01495726495726496</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="E8">
-        <v>0.002136752136752137</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="F8">
-        <v>0.06837606837606838</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01923076923076923</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1602564102564103</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="R8">
-        <v>0.1025641025641026</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="S8">
-        <v>0.4551282051282051</v>
+        <v>0.4517453798767967</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1043478260869565</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01739130434782609</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02173913043478261</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1043478260869565</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01304347826086956</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1956521739130435</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="R9">
-        <v>0.09565217391304348</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="S9">
-        <v>0.4478260869565218</v>
+        <v>0.452991452991453</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09452363090772693</v>
+        <v>0.09544468546637744</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01575393848462115</v>
+        <v>0.01663051337671728</v>
       </c>
       <c r="E10">
-        <v>0.0007501875468867217</v>
+        <v>0.0007230657989877079</v>
       </c>
       <c r="F10">
-        <v>0.06601650412603151</v>
+        <v>0.06507592190889371</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.118529632408102</v>
+        <v>0.1193058568329718</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01650412603150788</v>
+        <v>0.01590744757772957</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2273068267066767</v>
+        <v>0.2255965292841648</v>
       </c>
       <c r="R10">
-        <v>0.1042760690172543</v>
+        <v>0.1041214750542299</v>
       </c>
       <c r="S10">
-        <v>0.3563390847711928</v>
+        <v>0.3571945046999277</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1462585034013605</v>
+        <v>0.1442622950819672</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1054421768707483</v>
+        <v>0.1081967213114754</v>
       </c>
       <c r="K11">
-        <v>0.2210884353741497</v>
+        <v>0.2229508196721312</v>
       </c>
       <c r="L11">
-        <v>0.5136054421768708</v>
+        <v>0.5114754098360655</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01360544217687075</v>
+        <v>0.01311475409836066</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857143</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2142857142857143</v>
+        <v>0.2138364779874214</v>
       </c>
       <c r="K12">
-        <v>0.006493506493506494</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="L12">
-        <v>0.02597402597402598</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03896103896103896</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7777777777777778</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009302325581395349</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1441860465116279</v>
+        <v>0.1479820627802691</v>
       </c>
       <c r="I15">
-        <v>0.06976744186046512</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J15">
-        <v>0.3906976744186046</v>
+        <v>0.3901345291479821</v>
       </c>
       <c r="K15">
-        <v>0.05116279069767442</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02790697674418605</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03255813953488372</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2744186046511628</v>
+        <v>0.2690582959641256</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005555555555555556</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1944444444444444</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="I16">
-        <v>0.09444444444444444</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="J16">
-        <v>0.4333333333333333</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="K16">
-        <v>0.09444444444444444</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005555555555555556</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03333333333333333</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1388888888888889</v>
+        <v>0.1322751322751323</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01234567901234568</v>
+        <v>0.01202404809619238</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1851851851851852</v>
+        <v>0.186372745490982</v>
       </c>
       <c r="I17">
-        <v>0.09876543209876543</v>
+        <v>0.09819639278557114</v>
       </c>
       <c r="J17">
-        <v>0.4382716049382716</v>
+        <v>0.438877755511022</v>
       </c>
       <c r="K17">
-        <v>0.09053497942386832</v>
+        <v>0.09018036072144289</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01234567901234568</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.051440329218107</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111111111111111</v>
+        <v>0.1082164328657315</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008064516129032258</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1774193548387097</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="I18">
-        <v>0.1048387096774194</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="J18">
-        <v>0.4314516129032258</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="K18">
-        <v>0.09677419354838709</v>
+        <v>0.09448818897637795</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01209677419354839</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06451612903225806</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1048387096774194</v>
+        <v>0.1062992125984252</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009900990099009901</v>
+        <v>0.00962962962962963</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2079207920792079</v>
+        <v>0.2096296296296296</v>
       </c>
       <c r="I19">
-        <v>0.09367859862909368</v>
+        <v>0.09185185185185185</v>
       </c>
       <c r="J19">
-        <v>0.3724295506473724</v>
+        <v>0.3748148148148148</v>
       </c>
       <c r="K19">
-        <v>0.09748667174409749</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02284843869002285</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06702208682406702</v>
+        <v>0.06814814814814815</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1287128712871287</v>
+        <v>0.1259259259259259</v>
       </c>
     </row>
   </sheetData>
